--- a/biology/Botanique/Gentianales/Gentianales.xlsx
+++ b/biology/Botanique/Gentianales/Gentianales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Gentianales regroupe des plantes dicotylédones.
 </t>
@@ -511,11 +523,13 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les caractéristiques des Gentianales, notons d'abord la présence d'un seul cycle d'étamines, celles-ci insérées sur la corolle, ce qui
 fait pour l'ensemble de la fleur 4 cycles de pièces. Ce sont des Gamopétales tétracycliques. Le gynécée est supère mais réduit à deux carpelles comme chez beaucoup de Gamopétales évoluées. Le style est toujours unique mais les ovaires, généralement soudés, sont libres dans les deux familles des Asclépiadacées et des Apocynacées.
-Un caractère très apparent dans le bouton floral est la préfloraison tordue de la corolle, "enroulée en parapluie" dans le bouton, qui vaut à l'ordre son autre nom de Contortales[1].
+Un caractère très apparent dans le bouton floral est la préfloraison tordue de la corolle, "enroulée en parapluie" dans le bouton, qui vaut à l'ordre son autre nom de Contortales.
 </t>
         </is>
       </c>
@@ -544,16 +558,18 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], il comprend six familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), il comprend six familles :
 famille Apocynacées
 famille Asclépiadacées
 famille Gentianacées
 famille Loganiacées
 famille Retziacées
 famille Saccifoliacées
-La classification phylogénétique APG (1998)[3], classification phylogénétique APG II (2003)[4] et classification phylogénétique APG III (2009)[5] en ont modifié la composition et cet ordre comprend maintenant les 5 familles suivantes :
+La classification phylogénétique APG (1998), classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) en ont modifié la composition et cet ordre comprend maintenant les 5 familles suivantes :
 ordre Gentianales Juss. ex Bercht. &amp; J.Presl (1820)
 famille Apocynaceae Juss. (1789) (incl. Asclepiadaceae)
 famille Gelsemiaceae Struwe &amp; V.A.Albert (1995)
